--- a/analysis/results/Q1_norway/models/supplements_models_colon.xlsx
+++ b/analysis/results/Q1_norway/models/supplements_models_colon.xlsx
@@ -680,25 +680,25 @@
         <v>17</v>
       </c>
       <c r="D5" t="n">
-        <v>0.891754136386489</v>
+        <v>0.913037946073201</v>
       </c>
       <c r="E5" t="n">
-        <v>0.745239049145299</v>
+        <v>0.815342456427015</v>
       </c>
       <c r="F5" t="n">
-        <v>0.964050099206349</v>
+        <v>0.994668803418803</v>
       </c>
       <c r="G5" t="n">
         <v>0.792682926829268</v>
       </c>
       <c r="H5" t="n">
-        <v>0.771960281098212</v>
+        <v>0.787116851400165</v>
       </c>
       <c r="I5" t="n">
-        <v>0.654144562334217</v>
+        <v>0.613009404388715</v>
       </c>
       <c r="J5" t="n">
-        <v>0.903571428571429</v>
+        <v>0.932241379310345</v>
       </c>
     </row>
     <row r="6">
@@ -712,25 +712,25 @@
         <v>19</v>
       </c>
       <c r="D6" t="n">
-        <v>0.759963915076567</v>
+        <v>0.739809126356895</v>
       </c>
       <c r="E6" t="n">
-        <v>0.654720982142857</v>
+        <v>0.558708333333333</v>
       </c>
       <c r="F6" t="n">
-        <v>0.920476190476191</v>
+        <v>0.895192307692308</v>
       </c>
       <c r="G6" t="n">
         <v>0.780487804878049</v>
       </c>
       <c r="H6" t="n">
-        <v>0.663789285427216</v>
+        <v>0.649058397346789</v>
       </c>
       <c r="I6" t="n">
-        <v>0.581212121212121</v>
+        <v>0.490948275862069</v>
       </c>
       <c r="J6" t="n">
-        <v>0.790384615384615</v>
+        <v>0.814814814814815</v>
       </c>
     </row>
     <row r="7">
@@ -744,25 +744,25 @@
         <v>21</v>
       </c>
       <c r="D7" t="n">
-        <v>0.91343005952381</v>
+        <v>0.925884191092041</v>
       </c>
       <c r="E7" t="n">
-        <v>0.856785402097902</v>
+        <v>0.818223039215686</v>
       </c>
       <c r="F7" t="n">
-        <v>0.987851731601732</v>
+        <v>1</v>
       </c>
       <c r="G7" t="n">
         <v>0.819444444444444</v>
       </c>
       <c r="H7" t="n">
-        <v>0.762443833943834</v>
+        <v>0.794508394297812</v>
       </c>
       <c r="I7" t="n">
-        <v>0.609642857142857</v>
+        <v>0.6</v>
       </c>
       <c r="J7" t="n">
-        <v>0.93525</v>
+        <v>0.933333333333333</v>
       </c>
     </row>
     <row r="8">
@@ -872,25 +872,25 @@
         <v>29</v>
       </c>
       <c r="D11" t="n">
-        <v>0.847486537072107</v>
+        <v>0.835919545459565</v>
       </c>
       <c r="E11" t="n">
-        <v>0.761305694523722</v>
+        <v>0.722484270952928</v>
       </c>
       <c r="F11" t="n">
-        <v>0.887908430818879</v>
+        <v>0.939154554263566</v>
       </c>
       <c r="G11" t="n">
         <v>0.883211678832117</v>
       </c>
       <c r="H11" t="n">
-        <v>0.806243548300781</v>
+        <v>0.801846021302073</v>
       </c>
       <c r="I11" t="n">
-        <v>0.709873327484097</v>
+        <v>0.699015129888667</v>
       </c>
       <c r="J11" t="n">
-        <v>0.84626976284585</v>
+        <v>0.890528204196566</v>
       </c>
     </row>
     <row r="12">
@@ -904,25 +904,25 @@
         <v>31</v>
       </c>
       <c r="D12" t="n">
-        <v>0.521115220535476</v>
+        <v>0.539816218199318</v>
       </c>
       <c r="E12" t="n">
-        <v>0.424149693107756</v>
+        <v>0.411966523902406</v>
       </c>
       <c r="F12" t="n">
-        <v>0.60714063161916</v>
+        <v>0.672740040118912</v>
       </c>
       <c r="G12" t="n">
         <v>0.71919770773639</v>
       </c>
       <c r="H12" t="n">
-        <v>0.527600257585189</v>
+        <v>0.559256953104709</v>
       </c>
       <c r="I12" t="n">
-        <v>0.445538565463031</v>
+        <v>0.449796511627907</v>
       </c>
       <c r="J12" t="n">
-        <v>0.570085817524842</v>
+        <v>0.661967833491012</v>
       </c>
     </row>
     <row r="13">
@@ -936,25 +936,25 @@
         <v>33</v>
       </c>
       <c r="D13" t="n">
-        <v>0.899210232516894</v>
+        <v>0.88925989276607</v>
       </c>
       <c r="E13" t="n">
-        <v>0.824873820656258</v>
+        <v>0.763416477702192</v>
       </c>
       <c r="F13" t="n">
-        <v>0.987783952866861</v>
+        <v>0.980385101010101</v>
       </c>
       <c r="G13" t="n">
         <v>0.893719806763285</v>
       </c>
       <c r="H13" t="n">
-        <v>0.816933673353169</v>
+        <v>0.815106136140216</v>
       </c>
       <c r="I13" t="n">
-        <v>0.73546277665996</v>
+        <v>0.689672459893048</v>
       </c>
       <c r="J13" t="n">
-        <v>0.95073929115025</v>
+        <v>0.931670298879203</v>
       </c>
     </row>
   </sheetData>
@@ -1140,25 +1140,25 @@
         <v>38</v>
       </c>
       <c r="F5" t="n">
-        <v>0.957941969522852</v>
+        <v>0.960425168619363</v>
       </c>
       <c r="G5" t="n">
-        <v>0.853787878787879</v>
+        <v>0.86685474537037</v>
       </c>
       <c r="H5" t="n">
-        <v>0.995309095860566</v>
+        <v>1</v>
       </c>
       <c r="I5" t="n">
         <v>1</v>
       </c>
       <c r="J5" t="n">
-        <v>0.876201786719028</v>
+        <v>0.903387860047527</v>
       </c>
       <c r="K5" t="n">
-        <v>0.780244755244755</v>
+        <v>0.758620689655172</v>
       </c>
       <c r="L5" t="n">
-        <v>0.958275862068966</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6">
@@ -1178,25 +1178,25 @@
         <v>38</v>
       </c>
       <c r="F6" t="n">
-        <v>0.929624442582541</v>
+        <v>0.92777947870225</v>
       </c>
       <c r="G6" t="n">
-        <v>0.900025510204082</v>
+        <v>0.822787047511312</v>
       </c>
       <c r="H6" t="n">
-        <v>0.956032037815126</v>
+        <v>1</v>
       </c>
       <c r="I6" t="n">
         <v>1</v>
       </c>
       <c r="J6" t="n">
-        <v>0.868622354656837</v>
+        <v>0.866609644005364</v>
       </c>
       <c r="K6" t="n">
-        <v>0.774137931034483</v>
+        <v>0.71875</v>
       </c>
       <c r="L6" t="n">
-        <v>0.938030303030303</v>
+        <v>0.966666666666667</v>
       </c>
     </row>
     <row r="7">
@@ -1216,25 +1216,25 @@
         <v>38</v>
       </c>
       <c r="F7" t="n">
-        <v>0.927135191197691</v>
+        <v>0.915169870519037</v>
       </c>
       <c r="G7" t="n">
-        <v>0.857942708333333</v>
+        <v>0.792557315233786</v>
       </c>
       <c r="H7" t="n">
-        <v>0.994642857142857</v>
+        <v>1</v>
       </c>
       <c r="I7" t="n">
         <v>1</v>
       </c>
       <c r="J7" t="n">
-        <v>0.821268823768824</v>
+        <v>0.816575862040871</v>
       </c>
       <c r="K7" t="n">
-        <v>0.714285714285714</v>
+        <v>0.651826923076923</v>
       </c>
       <c r="L7" t="n">
-        <v>0.939</v>
+        <v>0.954545454545455</v>
       </c>
     </row>
     <row r="8">
@@ -1368,25 +1368,25 @@
         <v>38</v>
       </c>
       <c r="F11" t="n">
-        <v>0.888618290073723</v>
+        <v>0.883050621493639</v>
       </c>
       <c r="G11" t="n">
-        <v>0.761565259544035</v>
+        <v>0.759521244131455</v>
       </c>
       <c r="H11" t="n">
-        <v>0.950002750098218</v>
+        <v>0.979352253928867</v>
       </c>
       <c r="I11" t="n">
         <v>1</v>
       </c>
       <c r="J11" t="n">
-        <v>0.851008059836108</v>
+        <v>0.856595809947359</v>
       </c>
       <c r="K11" t="n">
-        <v>0.748882978723404</v>
+        <v>0.751050884955752</v>
       </c>
       <c r="L11" t="n">
-        <v>0.911580658268996</v>
+        <v>0.94002400240024</v>
       </c>
     </row>
     <row r="12">
@@ -1406,25 +1406,25 @@
         <v>38</v>
       </c>
       <c r="F12" t="n">
-        <v>0.679340296835686</v>
+        <v>0.650115482861352</v>
       </c>
       <c r="G12" t="n">
-        <v>0.612471867233133</v>
+        <v>0.51803688569548</v>
       </c>
       <c r="H12" t="n">
-        <v>0.759515233468216</v>
+        <v>0.77770851984009</v>
       </c>
       <c r="I12" t="n">
         <v>1</v>
       </c>
       <c r="J12" t="n">
-        <v>0.62692618415362</v>
+        <v>0.609202757232945</v>
       </c>
       <c r="K12" t="n">
-        <v>0.561761750154607</v>
+        <v>0.501660839160839</v>
       </c>
       <c r="L12" t="n">
-        <v>0.682653490328007</v>
+        <v>0.714280523255814</v>
       </c>
     </row>
     <row r="13">
@@ -1444,25 +1444,25 @@
         <v>38</v>
       </c>
       <c r="F13" t="n">
-        <v>0.921860991241497</v>
+        <v>0.907937696991585</v>
       </c>
       <c r="G13" t="n">
-        <v>0.86736385349238</v>
+        <v>0.779450817594118</v>
       </c>
       <c r="H13" t="n">
-        <v>0.962331800852209</v>
+        <v>0.996982751910833</v>
       </c>
       <c r="I13" t="n">
         <v>1</v>
       </c>
       <c r="J13" t="n">
-        <v>0.870248742899904</v>
+        <v>0.840639795341895</v>
       </c>
       <c r="K13" t="n">
-        <v>0.774093043107128</v>
+        <v>0.692573529411765</v>
       </c>
       <c r="L13" t="n">
-        <v>0.929218308327897</v>
+        <v>0.953150183150183</v>
       </c>
     </row>
   </sheetData>
@@ -1663,25 +1663,25 @@
         <v>38</v>
       </c>
       <c r="G5" t="n">
-        <v>0.965486033574269</v>
+        <v>0.97839594347458</v>
       </c>
       <c r="H5" t="n">
-        <v>0.876070075757576</v>
+        <v>0.930046439628483</v>
       </c>
       <c r="I5" t="n">
-        <v>0.998392857142857</v>
+        <v>1</v>
       </c>
       <c r="J5" t="n">
         <v>1</v>
       </c>
       <c r="K5" t="n">
-        <v>0.880370060973509</v>
+        <v>0.926224804303179</v>
       </c>
       <c r="L5" t="n">
-        <v>0.76724358974359</v>
+        <v>0.821428571428571</v>
       </c>
       <c r="M5" t="n">
-        <v>0.964622015915119</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6">
@@ -1704,25 +1704,25 @@
         <v>38</v>
       </c>
       <c r="G6" t="n">
-        <v>0.946776484109399</v>
+        <v>0.935255971231356</v>
       </c>
       <c r="H6" t="n">
-        <v>0.897757787325457</v>
+        <v>0.844488795518207</v>
       </c>
       <c r="I6" t="n">
-        <v>0.977882090336134</v>
+        <v>1</v>
       </c>
       <c r="J6" t="n">
         <v>1</v>
       </c>
       <c r="K6" t="n">
-        <v>0.865908459356735</v>
+        <v>0.879618400885127</v>
       </c>
       <c r="L6" t="n">
-        <v>0.796385941644562</v>
+        <v>0.765637254901961</v>
       </c>
       <c r="M6" t="n">
-        <v>0.927878787878788</v>
+        <v>0.966666666666667</v>
       </c>
     </row>
     <row r="7">
@@ -1745,25 +1745,25 @@
         <v>38</v>
       </c>
       <c r="G7" t="n">
-        <v>0.930972441909942</v>
+        <v>0.925369987035325</v>
       </c>
       <c r="H7" t="n">
-        <v>0.883723958333333</v>
+        <v>0.822916666666667</v>
       </c>
       <c r="I7" t="n">
-        <v>0.986931818181818</v>
+        <v>0.994833733974359</v>
       </c>
       <c r="J7" t="n">
         <v>1</v>
       </c>
       <c r="K7" t="n">
-        <v>0.827059015059015</v>
+        <v>0.830574946574926</v>
       </c>
       <c r="L7" t="n">
-        <v>0.658928571428572</v>
+        <v>0.68</v>
       </c>
       <c r="M7" t="n">
-        <v>0.954</v>
+        <v>0.96</v>
       </c>
     </row>
     <row r="8">
@@ -1909,25 +1909,25 @@
         <v>38</v>
       </c>
       <c r="G11" t="n">
-        <v>0.950571860156772</v>
+        <v>0.947159668819631</v>
       </c>
       <c r="H11" t="n">
-        <v>0.867373015558811</v>
+        <v>0.878209922665969</v>
       </c>
       <c r="I11" t="n">
-        <v>0.989882852959034</v>
+        <v>0.990662202380952</v>
       </c>
       <c r="J11" t="n">
         <v>1</v>
       </c>
       <c r="K11" t="n">
-        <v>0.900681313282912</v>
+        <v>0.896586972104168</v>
       </c>
       <c r="L11" t="n">
-        <v>0.772582205029014</v>
+        <v>0.81</v>
       </c>
       <c r="M11" t="n">
-        <v>0.945263612352702</v>
+        <v>0.967051499032882</v>
       </c>
     </row>
     <row r="12">
@@ -1950,25 +1950,25 @@
         <v>38</v>
       </c>
       <c r="G12" t="n">
-        <v>0.709429736904851</v>
+        <v>0.702797438588421</v>
       </c>
       <c r="H12" t="n">
-        <v>0.65183473023637</v>
+        <v>0.582586632994814</v>
       </c>
       <c r="I12" t="n">
-        <v>0.75506515812694</v>
+        <v>0.814237511476162</v>
       </c>
       <c r="J12" t="n">
         <v>1</v>
       </c>
       <c r="K12" t="n">
-        <v>0.658365885758715</v>
+        <v>0.647333149600456</v>
       </c>
       <c r="L12" t="n">
-        <v>0.578353297840875</v>
+        <v>0.542516122663859</v>
       </c>
       <c r="M12" t="n">
-        <v>0.761662028838857</v>
+        <v>0.74912037037037</v>
       </c>
     </row>
     <row r="13">
@@ -1991,25 +1991,25 @@
         <v>38</v>
       </c>
       <c r="G13" t="n">
-        <v>0.931532632297962</v>
+        <v>0.922330299562993</v>
       </c>
       <c r="H13" t="n">
-        <v>0.869564868908521</v>
+        <v>0.805733378256963</v>
       </c>
       <c r="I13" t="n">
-        <v>0.996938775510204</v>
+        <v>0.996961451247166</v>
       </c>
       <c r="J13" t="n">
         <v>1</v>
       </c>
       <c r="K13" t="n">
-        <v>0.900444648782833</v>
+        <v>0.864227168915258</v>
       </c>
       <c r="L13" t="n">
-        <v>0.784443021766965</v>
+        <v>0.721853023909986</v>
       </c>
       <c r="M13" t="n">
-        <v>0.992857142857143</v>
+        <v>0.96969696969697</v>
       </c>
     </row>
   </sheetData>
